--- a/Kicad/BEEWATCH MK2/Doc/Notes.xlsx
+++ b/Kicad/BEEWATCH MK2/Doc/Notes.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.No</t>
   </si>
@@ -25,6 +26,21 @@
   </si>
   <si>
     <t xml:space="preserve">CAD the LCD then only we need to think about board connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update the Baterey sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocks </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32 </t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -593,10 +609,61 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="4.7109375"/>
+    <col customWidth="1" min="2" max="2" width="25.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>